--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>787760.5211041977</v>
+        <v>817206.9887774421</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16877859.47655642</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2113478.654365224</v>
+        <v>1396887.814324549</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6944469.516562651</v>
+        <v>7222335.755882319</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>226.1986061925596</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>266.0157947715485</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -877,10 +879,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>125.1716544454844</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -905,10 +907,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>96.13672919203015</v>
+        <v>198.9926249238804</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1063,13 +1065,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>90.30617524481318</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1105,10 +1107,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>131.996999652747</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1136,22 +1138,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>126.8805161262531</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>195.1569564646411</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1297,7 +1299,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>140.4342819615948</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>235.030013401163</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1370,13 +1372,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>97.36454674747804</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>131.8799389974548</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170459</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>67.42894579208335</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1607,22 +1609,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>132.2925604765862</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>295.8777769143201</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>67.42894579208335</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1859,10 +1861,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2096,10 +2098,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>153.2006427344284</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2488,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2722,16 +2724,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>39.57637241135472</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>145.6160698088844</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2956,19 +2958,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3013,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>235.0300134011623</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3187,10 +3189,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>35.75633396116267</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3202,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>103.8284742946034</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3427,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>199.4201398804786</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3518,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3670,16 +3672,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>81.01098805494593</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3752,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>195.5695779437725</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>57.40203009199843</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3907,13 +3909,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>14.14416275345401</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>18.05677735225737</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3983,13 +3985,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>210.9887545725406</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>195.1569564646411</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4034,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4147,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>73.01514676193524</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1178.972377539967</v>
+        <v>1643.925021918072</v>
       </c>
       <c r="C2" t="n">
-        <v>1144.870308763794</v>
+        <v>1205.782549101495</v>
       </c>
       <c r="D2" t="n">
-        <v>916.3868681652491</v>
+        <v>769.8727642759395</v>
       </c>
       <c r="E2" t="n">
-        <v>482.6121233235442</v>
+        <v>501.1699412743753</v>
       </c>
       <c r="F2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="G2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J2" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K2" t="n">
-        <v>1167.464966128475</v>
+        <v>508.557199136501</v>
       </c>
       <c r="L2" t="n">
-        <v>1167.464966128475</v>
+        <v>508.557199136501</v>
       </c>
       <c r="M2" t="n">
-        <v>1167.464966128475</v>
+        <v>508.557199136501</v>
       </c>
       <c r="N2" t="n">
-        <v>1167.464966128475</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O2" t="n">
-        <v>1844.930551071281</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P2" t="n">
-        <v>2190.735900679003</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q2" t="n">
-        <v>2737.234686637598</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S2" t="n">
-        <v>2653.582812821435</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T2" t="n">
-        <v>2433.515585694473</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U2" t="n">
-        <v>2433.515585694473</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V2" t="n">
-        <v>2433.515585694473</v>
+        <v>3302.508634112982</v>
       </c>
       <c r="W2" t="n">
-        <v>2028.660131105507</v>
+        <v>2897.653179524015</v>
       </c>
       <c r="X2" t="n">
-        <v>1609.517667684817</v>
+        <v>2478.510716103326</v>
       </c>
       <c r="Y2" t="n">
-        <v>1201.231543984471</v>
+        <v>2070.224592402979</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1580.166670150082</v>
+        <v>2508.05756769164</v>
       </c>
       <c r="C3" t="n">
-        <v>1473.710208986724</v>
+        <v>2401.601106528282</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.619920133277</v>
+        <v>2306.510817674835</v>
       </c>
       <c r="E3" t="n">
-        <v>1284.499505460231</v>
+        <v>2212.390403001789</v>
       </c>
       <c r="F3" t="n">
-        <v>1201.115667076393</v>
+        <v>2129.006564617951</v>
       </c>
       <c r="G3" t="n">
-        <v>1115.730577342577</v>
+        <v>2043.621474884134</v>
       </c>
       <c r="H3" t="n">
-        <v>1073.994925158789</v>
+        <v>2001.885822700347</v>
       </c>
       <c r="I3" t="n">
-        <v>1073.994925158789</v>
+        <v>2027.949495860804</v>
       </c>
       <c r="J3" t="n">
-        <v>1398.553250125001</v>
+        <v>2352.507820827017</v>
       </c>
       <c r="K3" t="n">
-        <v>2076.018835067807</v>
+        <v>3007.21386745274</v>
       </c>
       <c r="L3" t="n">
-        <v>2076.018835067807</v>
+        <v>3007.21386745274</v>
       </c>
       <c r="M3" t="n">
-        <v>2076.018835067807</v>
+        <v>3007.21386745274</v>
       </c>
       <c r="N3" t="n">
-        <v>2076.018835067807</v>
+        <v>3007.21386745274</v>
       </c>
       <c r="O3" t="n">
-        <v>2076.018835067807</v>
+        <v>3007.21386745274</v>
       </c>
       <c r="P3" t="n">
-        <v>2079.322969911183</v>
+        <v>3007.21386745274</v>
       </c>
       <c r="Q3" t="n">
-        <v>2620.061908543259</v>
+        <v>3547.952806084816</v>
       </c>
       <c r="R3" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S3" t="n">
-        <v>2673.779249085981</v>
+        <v>3601.670146627539</v>
       </c>
       <c r="T3" t="n">
-        <v>2543.600605416583</v>
+        <v>3471.49150295814</v>
       </c>
       <c r="U3" t="n">
-        <v>2367.264058416551</v>
+        <v>3295.154955958109</v>
       </c>
       <c r="V3" t="n">
-        <v>2168.14654047855</v>
+        <v>3096.037438020108</v>
       </c>
       <c r="W3" t="n">
-        <v>1982.823786211744</v>
+        <v>2910.714683753302</v>
       </c>
       <c r="X3" t="n">
-        <v>1827.956350450624</v>
+        <v>2755.847247992182</v>
       </c>
       <c r="Y3" t="n">
-        <v>1701.470571229845</v>
+        <v>2629.361468771403</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1199.63323734668</v>
+        <v>1152.360672295464</v>
       </c>
       <c r="C4" t="n">
-        <v>1027.071525829905</v>
+        <v>979.7989607786893</v>
       </c>
       <c r="D4" t="n">
-        <v>861.1935330314275</v>
+        <v>813.920967980212</v>
       </c>
       <c r="E4" t="n">
-        <v>691.4355292821647</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F4" t="n">
-        <v>514.7284752439209</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G4" t="n">
-        <v>349.1372002697486</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H4" t="n">
-        <v>209.2350259601232</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I4" t="n">
-        <v>120.5750767347985</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J4" t="n">
-        <v>207.1547618994884</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K4" t="n">
-        <v>481.9132164706239</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L4" t="n">
-        <v>900.123098238585</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M4" t="n">
-        <v>1359.606965419498</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N4" t="n">
-        <v>1801.865768577142</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O4" t="n">
-        <v>2221.535017802924</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P4" t="n">
-        <v>2569.041911773266</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q4" t="n">
-        <v>2737.234686637598</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R4" t="n">
-        <v>2715.81686534297</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S4" t="n">
-        <v>2556.575496640966</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T4" t="n">
-        <v>2310.696050219422</v>
+        <v>2654.405629657103</v>
       </c>
       <c r="U4" t="n">
-        <v>2032.263049472527</v>
+        <v>2375.972628910209</v>
       </c>
       <c r="V4" t="n">
-        <v>1745.307541342957</v>
+        <v>2089.017120780639</v>
       </c>
       <c r="W4" t="n">
-        <v>1618.871526751559</v>
+        <v>1816.990716366931</v>
       </c>
       <c r="X4" t="n">
-        <v>1618.871526751559</v>
+        <v>1571.598961700343</v>
       </c>
       <c r="Y4" t="n">
-        <v>1391.451856065667</v>
+        <v>1344.179291014452</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1386.398721766977</v>
+        <v>2210.394775134949</v>
       </c>
       <c r="C5" t="n">
-        <v>948.2562489504005</v>
+        <v>1772.252302318372</v>
       </c>
       <c r="D5" t="n">
-        <v>512.3464641248449</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="E5" t="n">
-        <v>78.57171928314017</v>
+        <v>902.5677726511115</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74469373275195</v>
+        <v>474.7003430603193</v>
       </c>
       <c r="G5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J5" t="n">
-        <v>54.74469373275195</v>
+        <v>379.6939845915884</v>
       </c>
       <c r="K5" t="n">
-        <v>54.74469373275195</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="L5" t="n">
-        <v>54.74469373275195</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="M5" t="n">
-        <v>54.74469373275195</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="N5" t="n">
-        <v>666.6506660403358</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O5" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W5" t="n">
-        <v>2640.126879372921</v>
+        <v>3464.122932740892</v>
       </c>
       <c r="X5" t="n">
-        <v>2220.984415952232</v>
+        <v>3044.980469320203</v>
       </c>
       <c r="Y5" t="n">
-        <v>1812.698292251885</v>
+        <v>2636.694345619856</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I6" t="n">
-        <v>80.80836689320955</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J6" t="n">
-        <v>405.3666918594219</v>
+        <v>397.8608366497954</v>
       </c>
       <c r="K6" t="n">
-        <v>405.3666918594219</v>
+        <v>397.8608366497954</v>
       </c>
       <c r="L6" t="n">
-        <v>405.3666918594219</v>
+        <v>829.4236910780509</v>
       </c>
       <c r="M6" t="n">
-        <v>923.3460921744155</v>
+        <v>829.4236910780509</v>
       </c>
       <c r="N6" t="n">
-        <v>1600.811677117221</v>
+        <v>829.4236910780509</v>
       </c>
       <c r="O6" t="n">
-        <v>1600.811677117221</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="P6" t="n">
-        <v>1600.811677117221</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="Q6" t="n">
-        <v>1600.811677117221</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>742.8207098557364</v>
+        <v>1152.360672295464</v>
       </c>
       <c r="C7" t="n">
-        <v>570.2589983389613</v>
+        <v>979.7989607786893</v>
       </c>
       <c r="D7" t="n">
-        <v>404.381005540484</v>
+        <v>813.920967980212</v>
       </c>
       <c r="E7" t="n">
-        <v>234.6230017912213</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F7" t="n">
-        <v>143.4046429580766</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G7" t="n">
-        <v>143.4046429580766</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H7" t="n">
-        <v>143.4046429580766</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R7" t="n">
-        <v>2649.986482340924</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S7" t="n">
-        <v>2490.74511363892</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T7" t="n">
-        <v>2244.865667217376</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="U7" t="n">
-        <v>1966.432666470481</v>
+        <v>2375.972628910209</v>
       </c>
       <c r="V7" t="n">
-        <v>1679.477158340911</v>
+        <v>2089.017120780639</v>
       </c>
       <c r="W7" t="n">
-        <v>1407.450753927203</v>
+        <v>1816.990716366931</v>
       </c>
       <c r="X7" t="n">
-        <v>1162.058999260615</v>
+        <v>1571.598961700343</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.6393285747235</v>
+        <v>1344.179291014452</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1078.651074442687</v>
+        <v>2006.541971984245</v>
       </c>
       <c r="C8" t="n">
-        <v>640.5086016261107</v>
+        <v>1568.399499167669</v>
       </c>
       <c r="D8" t="n">
-        <v>512.3464641248449</v>
+        <v>1132.489714342113</v>
       </c>
       <c r="E8" t="n">
-        <v>482.6121233235442</v>
+        <v>698.7149695004082</v>
       </c>
       <c r="F8" t="n">
-        <v>54.74469373275195</v>
+        <v>270.8475399096159</v>
       </c>
       <c r="G8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J8" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K8" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L8" t="n">
-        <v>1167.464966128475</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="M8" t="n">
-        <v>1167.464966128475</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="N8" t="n">
-        <v>1167.464966128475</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="O8" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W8" t="n">
-        <v>2332.379232048631</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X8" t="n">
-        <v>1913.236768627942</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y8" t="n">
-        <v>1504.950644927595</v>
+        <v>2432.841542469153</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I9" t="n">
-        <v>80.80836689320955</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J9" t="n">
-        <v>245.8805072316101</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K9" t="n">
-        <v>245.8805072316101</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L9" t="n">
-        <v>245.8805072316101</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M9" t="n">
-        <v>923.3460921744155</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N9" t="n">
-        <v>1600.811677117221</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O9" t="n">
-        <v>1600.811677117221</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P9" t="n">
-        <v>1600.811677117221</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q9" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>964.0448505953706</v>
+        <v>1152.360672295464</v>
       </c>
       <c r="C10" t="n">
-        <v>791.4831390785955</v>
+        <v>979.7989607786893</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6051462801182</v>
+        <v>813.920967980212</v>
       </c>
       <c r="E10" t="n">
-        <v>625.6051462801182</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F10" t="n">
-        <v>448.8980922418745</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G10" t="n">
-        <v>283.3068172677021</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H10" t="n">
-        <v>143.4046429580766</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R10" t="n">
-        <v>2671.404303635552</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S10" t="n">
-        <v>2512.162934933549</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T10" t="n">
-        <v>2266.283488512004</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="U10" t="n">
-        <v>1987.850487765109</v>
+        <v>2230.869930842856</v>
       </c>
       <c r="V10" t="n">
-        <v>1700.894979635539</v>
+        <v>2089.017120780639</v>
       </c>
       <c r="W10" t="n">
-        <v>1428.868575221831</v>
+        <v>1816.990716366931</v>
       </c>
       <c r="X10" t="n">
-        <v>1191.464521281262</v>
+        <v>1571.598961700343</v>
       </c>
       <c r="Y10" t="n">
-        <v>964.0448505953706</v>
+        <v>1344.179291014452</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>153.0927207504066</v>
+        <v>1080.983618291964</v>
       </c>
       <c r="C11" t="n">
-        <v>54.74469373275195</v>
+        <v>642.8411454753873</v>
       </c>
       <c r="D11" t="n">
-        <v>54.74469373275195</v>
+        <v>206.9313606498318</v>
       </c>
       <c r="E11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="F11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="G11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J11" t="n">
-        <v>54.74469373275195</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K11" t="n">
-        <v>54.74469373275195</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L11" t="n">
-        <v>732.2102786755574</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="M11" t="n">
-        <v>1409.675863618363</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="N11" t="n">
-        <v>2087.141448561168</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="O11" t="n">
-        <v>2737.234686637598</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P11" t="n">
-        <v>2737.234686637598</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q11" t="n">
-        <v>2737.234686637598</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S11" t="n">
-        <v>2653.582812821435</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T11" t="n">
-        <v>2433.515585694473</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U11" t="n">
-        <v>2174.293283011491</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="V11" t="n">
-        <v>1811.676332945317</v>
+        <v>2739.567230486874</v>
       </c>
       <c r="W11" t="n">
-        <v>1406.82087835635</v>
+        <v>2334.711775897908</v>
       </c>
       <c r="X11" t="n">
-        <v>987.678414935661</v>
+        <v>1915.569312477218</v>
       </c>
       <c r="Y11" t="n">
-        <v>579.3922912353144</v>
+        <v>1507.283188776872</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I12" t="n">
-        <v>54.74469373275195</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J12" t="n">
-        <v>379.3030186989643</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K12" t="n">
-        <v>379.3030186989643</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L12" t="n">
-        <v>379.3030186989643</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M12" t="n">
-        <v>1040.518870268755</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N12" t="n">
-        <v>1717.984455211561</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O12" t="n">
-        <v>1717.984455211561</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P12" t="n">
-        <v>1717.984455211561</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q12" t="n">
-        <v>1717.984455211561</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1133.802854344633</v>
+        <v>782.7963491011951</v>
       </c>
       <c r="C13" t="n">
-        <v>961.2411428278582</v>
+        <v>610.2346375844201</v>
       </c>
       <c r="D13" t="n">
-        <v>795.3631500293809</v>
+        <v>444.3566447859428</v>
       </c>
       <c r="E13" t="n">
-        <v>625.6051462801182</v>
+        <v>274.59864103668</v>
       </c>
       <c r="F13" t="n">
-        <v>448.8980922418745</v>
+        <v>97.89158699843622</v>
       </c>
       <c r="G13" t="n">
-        <v>283.3068172677021</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H13" t="n">
-        <v>143.4046429580766</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S13" t="n">
-        <v>2671.404303635552</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.524857214007</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U13" t="n">
-        <v>2357.414810959378</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V13" t="n">
-        <v>2070.459302829808</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W13" t="n">
-        <v>1798.4328984161</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X13" t="n">
-        <v>1553.041143749512</v>
+        <v>1202.034638506074</v>
       </c>
       <c r="Y13" t="n">
-        <v>1325.62147306362</v>
+        <v>974.6149678201823</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1078.651074442687</v>
+        <v>1080.983618291964</v>
       </c>
       <c r="C14" t="n">
-        <v>1078.651074442687</v>
+        <v>642.8411454753873</v>
       </c>
       <c r="D14" t="n">
-        <v>642.7412896171318</v>
+        <v>206.9313606498318</v>
       </c>
       <c r="E14" t="n">
-        <v>642.7412896171318</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="F14" t="n">
-        <v>642.7412896171318</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="G14" t="n">
-        <v>343.8748482895357</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J14" t="n">
-        <v>489.9993811856698</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K14" t="n">
-        <v>1167.464966128475</v>
+        <v>907.652803641761</v>
       </c>
       <c r="L14" t="n">
-        <v>1167.464966128475</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="M14" t="n">
-        <v>1167.464966128475</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="N14" t="n">
-        <v>1167.464966128475</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="O14" t="n">
-        <v>1344.116250983141</v>
+        <v>2721.889967810443</v>
       </c>
       <c r="P14" t="n">
-        <v>2021.581835925947</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q14" t="n">
-        <v>2568.080621884541</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U14" t="n">
-        <v>2737.234686637598</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="V14" t="n">
-        <v>2737.234686637598</v>
+        <v>2739.567230486874</v>
       </c>
       <c r="W14" t="n">
-        <v>2332.379232048631</v>
+        <v>2334.711775897908</v>
       </c>
       <c r="X14" t="n">
-        <v>1913.236768627942</v>
+        <v>1915.569312477218</v>
       </c>
       <c r="Y14" t="n">
-        <v>1504.950644927595</v>
+        <v>1507.283188776872</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I15" t="n">
-        <v>80.80836689320955</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J15" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K15" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L15" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M15" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N15" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O15" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P15" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q15" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1133.802854344633</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C16" t="n">
-        <v>961.2411428278582</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D16" t="n">
-        <v>795.3631500293809</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E16" t="n">
-        <v>625.6051462801182</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F16" t="n">
-        <v>448.8980922418745</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G16" t="n">
-        <v>283.3068172677021</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4046429580766</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S16" t="n">
-        <v>2671.404303635552</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T16" t="n">
-        <v>2425.524857214007</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U16" t="n">
-        <v>2357.414810959378</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V16" t="n">
-        <v>2070.459302829808</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W16" t="n">
-        <v>1798.4328984161</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X16" t="n">
-        <v>1553.041143749512</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y16" t="n">
-        <v>1325.62147306362</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="17">
@@ -5507,34 +5509,34 @@
         <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5592,25 +5594,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1327.049347523737</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5744,34 +5746,34 @@
         <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N20" t="n">
-        <v>3135.398407382223</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O20" t="n">
-        <v>4115.578073952529</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1737.537409152261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1737.537409152261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1737.537409152261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1737.537409152261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1737.537409152261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5998,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238763</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856325</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>1162.814665109382</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>990.252953592607</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>824.3749607941297</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>654.6169570448669</v>
       </c>
       <c r="F28" t="n">
-        <v>242.1630145804051</v>
+        <v>477.9099030066232</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E31" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>105.4320942910045</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1238.98066781929</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1011.560997133398</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3346.878440713113</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>3174.316729196338</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="D34" t="n">
-        <v>3008.438736397861</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>2838.680732648598</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>2661.973678610354</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>2496.382403636182</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>4953.800644836978</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>4848.923398074752</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>4570.490397327858</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>4283.534889198289</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>4011.50848478458</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>3766.116730117992</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>3538.697059432101</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6925,34 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1021.77365348828</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1021.77365348828</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2178.821488698831</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N35" t="n">
-        <v>3304.552472135278</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O35" t="n">
-        <v>4284.732138705584</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1015.441008084184</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>842.8792965674086</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2517.485965445823</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2239.052964698928</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1952.097456569358</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1680.07105215565</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1434.679297489062</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1207.259626803171</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,52 +7174,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L38" t="n">
-        <v>1371.865819681875</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M38" t="n">
-        <v>2528.913654892426</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D39" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I39" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J39" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S39" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W39" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X39" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7372,10 +7374,10 @@
         <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1753.694484367541</v>
+        <v>2006.541971984245</v>
       </c>
       <c r="C41" t="n">
-        <v>1753.694484367541</v>
+        <v>1568.399499167669</v>
       </c>
       <c r="D41" t="n">
-        <v>1317.784699541985</v>
+        <v>1132.489714342113</v>
       </c>
       <c r="E41" t="n">
-        <v>884.0099547002803</v>
+        <v>698.7149695004082</v>
       </c>
       <c r="F41" t="n">
-        <v>456.1425251094881</v>
+        <v>270.8475399096159</v>
       </c>
       <c r="G41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J41" t="n">
-        <v>489.9993811856698</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K41" t="n">
-        <v>1167.464966128475</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L41" t="n">
-        <v>1167.464966128475</v>
+        <v>943.7698379261327</v>
       </c>
       <c r="M41" t="n">
-        <v>1167.464966128475</v>
+        <v>1850.888420010474</v>
       </c>
       <c r="N41" t="n">
-        <v>1167.464966128475</v>
+        <v>2758.007002094815</v>
       </c>
       <c r="O41" t="n">
-        <v>1844.930551071281</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="P41" t="n">
-        <v>2190.735900679003</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="Q41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S41" t="n">
-        <v>2653.582812821435</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T41" t="n">
-        <v>2433.515585694473</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U41" t="n">
-        <v>2174.293283011491</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V41" t="n">
-        <v>1811.676332945317</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W41" t="n">
-        <v>1753.694484367541</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X41" t="n">
-        <v>1753.694484367541</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y41" t="n">
-        <v>1753.694484367541</v>
+        <v>2432.841542469153</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J42" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>742.8207098557364</v>
+        <v>942.0377178031986</v>
       </c>
       <c r="C43" t="n">
-        <v>570.2589983389613</v>
+        <v>769.4760062864235</v>
       </c>
       <c r="D43" t="n">
-        <v>404.381005540484</v>
+        <v>603.5980134879462</v>
       </c>
       <c r="E43" t="n">
-        <v>234.6230017912213</v>
+        <v>433.8400097386835</v>
       </c>
       <c r="F43" t="n">
-        <v>220.3359687069243</v>
+        <v>257.1329557004397</v>
       </c>
       <c r="G43" t="n">
-        <v>54.74469373275195</v>
+        <v>91.54168072626732</v>
       </c>
       <c r="H43" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R43" t="n">
-        <v>2649.986482340924</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S43" t="n">
-        <v>2490.74511363892</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T43" t="n">
-        <v>2244.865667217376</v>
+        <v>2444.082675164838</v>
       </c>
       <c r="U43" t="n">
-        <v>1966.432666470481</v>
+        <v>2165.649674417943</v>
       </c>
       <c r="V43" t="n">
-        <v>1679.477158340911</v>
+        <v>1878.694166288373</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.450753927203</v>
+        <v>1606.667761874665</v>
       </c>
       <c r="X43" t="n">
-        <v>1162.058999260615</v>
+        <v>1361.276007208078</v>
       </c>
       <c r="Y43" t="n">
-        <v>934.6393285747235</v>
+        <v>1133.856336522186</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1142.333694861421</v>
+        <v>2006.541971984245</v>
       </c>
       <c r="C44" t="n">
-        <v>704.1912220448448</v>
+        <v>1568.399499167669</v>
       </c>
       <c r="D44" t="n">
-        <v>268.2814372192893</v>
+        <v>1132.489714342113</v>
       </c>
       <c r="E44" t="n">
-        <v>55.16148310561195</v>
+        <v>698.7149695004082</v>
       </c>
       <c r="F44" t="n">
-        <v>55.16148310561195</v>
+        <v>270.8475399096159</v>
       </c>
       <c r="G44" t="n">
-        <v>55.16148310561195</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H44" t="n">
-        <v>55.16148310561195</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J44" t="n">
-        <v>54.74469373275195</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K44" t="n">
-        <v>666.6506660403358</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L44" t="n">
-        <v>1344.116250983141</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M44" t="n">
-        <v>1344.116250983141</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="N44" t="n">
-        <v>1344.116250983141</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="O44" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V44" t="n">
-        <v>2374.617736571424</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W44" t="n">
-        <v>1969.762281982458</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X44" t="n">
-        <v>1550.619818561768</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y44" t="n">
-        <v>1142.333694861421</v>
+        <v>2432.841542469153</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C45" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D45" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E45" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F45" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G45" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I45" t="n">
-        <v>54.74469373275195</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J45" t="n">
-        <v>379.3030186989643</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K45" t="n">
-        <v>379.3030186989643</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L45" t="n">
-        <v>1056.76860364177</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M45" t="n">
-        <v>1056.76860364177</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N45" t="n">
-        <v>1056.76860364177</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O45" t="n">
-        <v>1056.76860364177</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P45" t="n">
-        <v>1600.811677117221</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q45" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R45" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S45" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V45" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W45" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X45" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>902.0620785577398</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C46" t="n">
-        <v>729.5003670409648</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D46" t="n">
-        <v>563.6223742424875</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E46" t="n">
-        <v>393.8643704932247</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F46" t="n">
-        <v>217.1573164549809</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G46" t="n">
-        <v>143.4046429580766</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H46" t="n">
-        <v>143.4046429580766</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R46" t="n">
-        <v>2649.986482340924</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S46" t="n">
-        <v>2649.986482340924</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T46" t="n">
-        <v>2404.107035919379</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U46" t="n">
-        <v>2125.674035172484</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V46" t="n">
-        <v>1838.718527042915</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W46" t="n">
-        <v>1566.692122629206</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X46" t="n">
-        <v>1321.300367962619</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y46" t="n">
-        <v>1093.880697276727</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,19 +7990,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>712.613209508349</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P2" t="n">
-        <v>349.2983329370936</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>684.3086716593996</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.33750994280399</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8213,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>309.4863362707125</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>618.0868407147311</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
@@ -8298,16 +8300,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>435.9220751800561</v>
       </c>
       <c r="M6" t="n">
-        <v>523.2115154696905</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,10 +8455,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8529,7 +8531,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>166.7395356953541</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,19 +8540,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>684.3086716593995</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="M11" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>656.6598364408383</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,22 +8765,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>667.8947995654455</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>400.7442731415326</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,19 +9242,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>324.5237132641532</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>695.4268903509978</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9498,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.2456490882098</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,10 +9646,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9711,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>489.149621984427</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10598,10 +10600,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10659,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>60.59188538505214</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>879.2599254975249</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
-        <v>349.2983329370936</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>618.0868407147311</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,10 +11311,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L45" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>549.5384580560115</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23258,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>336.3965013409329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>297.557058395833</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -23276,7 +23278,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2197249473423</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>297.1444369167016</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>101.5060761486486</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473423</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>90.2200092229009</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>135.3636110865066</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>18.31929241554619</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>7.907823718759317</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>128.4628789093298</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
-        <v>44.0005120768507</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>161.9268490649757</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>201.8142751191963</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>343.4048699510786</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>160.7958207444073</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>218.4482428207472</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>202.2268965983276</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -25922,7 +25924,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>90.92021546249536</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>656249.4190499872</v>
+        <v>661732.9730753979</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>656249.4190499872</v>
+        <v>661732.9730753979</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>656249.4190499872</v>
+        <v>661732.9730753979</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>429746.5561817554</v>
+        <v>519429.5339119454</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>429746.5561817554</v>
+        <v>519429.5339119455</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>659374.280900519</v>
+        <v>659374.2809005191</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>659374.2809005191</v>
+        <v>659374.2809005192</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>659374.280900519</v>
+        <v>659374.2809005191</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>429746.5561817553</v>
+        <v>519429.5339119455</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>429746.5561817554</v>
+        <v>519429.5339119455</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308284.7089369849</v>
+        <v>308284.7089369848</v>
       </c>
       <c r="C2" t="n">
         <v>308284.7089369848</v>
@@ -26320,16 +26322,16 @@
         <v>308284.7089369848</v>
       </c>
       <c r="E2" t="n">
-        <v>197442.8824269991</v>
+        <v>238646.8557293379</v>
       </c>
       <c r="F2" t="n">
-        <v>197442.8824269991</v>
+        <v>238646.855729338</v>
       </c>
       <c r="G2" t="n">
-        <v>302943.1108789775</v>
+        <v>302943.1108789776</v>
       </c>
       <c r="H2" t="n">
-        <v>302943.1108789775</v>
+        <v>302943.1108789776</v>
       </c>
       <c r="I2" t="n">
         <v>302943.1108789775</v>
@@ -26350,10 +26352,10 @@
         <v>302943.1108789775</v>
       </c>
       <c r="O2" t="n">
-        <v>197442.8824269991</v>
+        <v>238646.855729338</v>
       </c>
       <c r="P2" t="n">
-        <v>197442.8824269991</v>
+        <v>238646.855729338</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>307066.9702867178</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>99213.04363527198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>239739.5295867427</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136827.6970079677</v>
+        <v>101520.2762989903</v>
       </c>
       <c r="C4" t="n">
-        <v>136827.6970079677</v>
+        <v>101520.2762989903</v>
       </c>
       <c r="D4" t="n">
-        <v>136827.6970079677</v>
+        <v>101520.2762989903</v>
       </c>
       <c r="E4" t="n">
-        <v>26801.8445423323</v>
+        <v>32395.06964825125</v>
       </c>
       <c r="F4" t="n">
-        <v>26801.8445423323</v>
+        <v>32395.06964825125</v>
       </c>
       <c r="G4" t="n">
         <v>41122.95192991272</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991273</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="J4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991273</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
-        <v>26801.8445423323</v>
+        <v>32395.06964825125</v>
       </c>
       <c r="P4" t="n">
-        <v>26801.8445423323</v>
+        <v>32395.06964825125</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26494,7 +26496,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952316</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-133104.1302803872</v>
+        <v>-189640.0465282464</v>
       </c>
       <c r="C6" t="n">
-        <v>96223.44469212566</v>
+        <v>117426.9237584713</v>
       </c>
       <c r="D6" t="n">
-        <v>96223.44469212569</v>
+        <v>117426.9237584714</v>
       </c>
       <c r="E6" t="n">
-        <v>129035.0706477754</v>
+        <v>150541.8772015635</v>
       </c>
       <c r="F6" t="n">
-        <v>129035.0706477753</v>
+        <v>150541.8772015636</v>
       </c>
       <c r="G6" t="n">
-        <v>21308.63254483082</v>
+        <v>84888.87670800035</v>
       </c>
       <c r="H6" t="n">
         <v>184101.9203432723</v>
@@ -26543,10 +26545,10 @@
         <v>184101.9203432723</v>
       </c>
       <c r="J6" t="n">
-        <v>5056.662255620351</v>
+        <v>-55637.60924347042</v>
       </c>
       <c r="K6" t="n">
-        <v>184101.9203432723</v>
+        <v>184101.9203432722</v>
       </c>
       <c r="L6" t="n">
         <v>184101.9203432723</v>
@@ -26558,10 +26560,10 @@
         <v>184101.9203432723</v>
       </c>
       <c r="O6" t="n">
-        <v>129035.0706477753</v>
+        <v>150541.8772015636</v>
       </c>
       <c r="P6" t="n">
-        <v>129035.0706477753</v>
+        <v>150541.8772015636</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447887</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>205.3520807847403</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>163.4212026217392</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,10 +27599,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>144.134485924087</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27625,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27676,7 +27678,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>304.6701708510469</v>
+        <v>201.8142751191967</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27783,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>84.63380825304816</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,10 +27827,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27856,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>304.6701708510468</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>202.2268965983276</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>143.651671086679</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>7.907823718758664</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34699,7 +34701,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>712.613209508349</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P2" t="n">
-        <v>349.2983329370936</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632068</v>
       </c>
       <c r="J3" t="n">
         <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>684.3086716593996</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.33750994280399</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34863,7 +34865,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34933,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>309.4863362707125</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>618.0868407147311</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35009,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
@@ -35018,16 +35020,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>435.9220751800561</v>
       </c>
       <c r="M6" t="n">
-        <v>523.2115154696905</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35036,7 +35038,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35106,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35173,10 +35175,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35249,7 +35251,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>166.7395356953541</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35343,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>684.3086716593995</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="M11" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>656.6598364408383</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>667.8947995654455</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,10 +35509,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,16 +35661,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>400.7442731415326</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35741,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,19 +35962,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>324.5237132641532</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>695.4268903509978</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36218,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.2456490882098</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,10 +36366,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36449,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>489.149621984427</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>60.59188538505214</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
         <v>661.3192390158824</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>879.2599254975249</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
-        <v>349.2983329370936</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>618.0868407147311</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38029,10 +38031,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L45" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38111,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>549.5384580560115</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>817206.9887774421</v>
+        <v>816414.0778395808</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1396887.814324549</v>
+        <v>1396887.814324548</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>309.191736464479</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>266.0157947715485</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -676,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -727,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -831,7 +831,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>137.5995661138269</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -898,7 +898,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
@@ -910,13 +910,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>379.5360962429753</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>198.9926249238804</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>34.71811217257873</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>131.996999652747</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1119,7 +1119,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1147,10 +1147,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>195.1569564646411</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>312.3411504335334</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>140.4342819615948</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1378,16 +1378,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>131.8799389974548</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>147.8949442061426</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1435,7 +1435,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1542,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170459</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1609,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>30.86433005490021</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>132.2925604765862</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1672,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1776,13 +1776,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>54.49360828358961</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1861,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2004,25 +2004,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>39.5975448024402</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2083,7 +2083,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2098,7 +2098,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
-        <v>153.2006427344284</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>18.05677735225717</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2727,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>145.6160698088844</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2778,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>15.57230972412408</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2958,7 +2958,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3015,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>235.0300134011623</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3189,10 +3189,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>35.75633396116267</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>240.273786227905</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3726,10 +3726,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>81.01098805494593</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3748,19 +3748,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>195.5695779437725</v>
+        <v>100.7189851275666</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225737</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3991,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>195.1569564646411</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>198.580003444749</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1643.925021918072</v>
+        <v>1972.716300188935</v>
       </c>
       <c r="C2" t="n">
-        <v>1205.782549101495</v>
+        <v>1660.401414871279</v>
       </c>
       <c r="D2" t="n">
-        <v>769.8727642759395</v>
+        <v>1224.491630045724</v>
       </c>
       <c r="E2" t="n">
-        <v>501.1699412743753</v>
+        <v>790.716885204019</v>
       </c>
       <c r="F2" t="n">
-        <v>73.30251168358311</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="G2" t="n">
-        <v>73.30251168358311</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H2" t="n">
-        <v>73.30251168358311</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I2" t="n">
         <v>73.30251168358311</v>
@@ -4333,16 +4333,16 @@
         <v>508.557199136501</v>
       </c>
       <c r="K2" t="n">
-        <v>508.557199136501</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L2" t="n">
-        <v>508.557199136501</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M2" t="n">
-        <v>508.557199136501</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="N2" t="n">
-        <v>1214.044276549766</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="O2" t="n">
         <v>2121.162858634107</v>
@@ -4360,22 +4360,22 @@
         <v>3665.125584179155</v>
       </c>
       <c r="T2" t="n">
-        <v>3665.125584179155</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="U2" t="n">
-        <v>3665.125584179155</v>
+        <v>3185.836054369211</v>
       </c>
       <c r="V2" t="n">
-        <v>3302.508634112982</v>
+        <v>2823.219104303037</v>
       </c>
       <c r="W2" t="n">
-        <v>2897.653179524015</v>
+        <v>2418.363649714071</v>
       </c>
       <c r="X2" t="n">
-        <v>2478.510716103326</v>
+        <v>1999.221186293381</v>
       </c>
       <c r="Y2" t="n">
-        <v>2070.224592402979</v>
+        <v>1994.975466633439</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2508.05756769164</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C3" t="n">
-        <v>2401.601106528282</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D3" t="n">
-        <v>2306.510817674835</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E3" t="n">
-        <v>2212.390403001789</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F3" t="n">
-        <v>2129.006564617951</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G3" t="n">
-        <v>2043.621474884134</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H3" t="n">
-        <v>2001.885822700347</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I3" t="n">
-        <v>2027.949495860804</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J3" t="n">
-        <v>2352.507820827017</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K3" t="n">
-        <v>3007.21386745274</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L3" t="n">
-        <v>3007.21386745274</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M3" t="n">
-        <v>3007.21386745274</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N3" t="n">
-        <v>3007.21386745274</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O3" t="n">
-        <v>3007.21386745274</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P3" t="n">
-        <v>3007.21386745274</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q3" t="n">
-        <v>3547.952806084816</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R3" t="n">
-        <v>3665.125584179155</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S3" t="n">
-        <v>3601.670146627539</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T3" t="n">
-        <v>3471.49150295814</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U3" t="n">
-        <v>3295.154955958109</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V3" t="n">
-        <v>3096.037438020108</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W3" t="n">
-        <v>2910.714683753302</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X3" t="n">
-        <v>2755.847247992182</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y3" t="n">
-        <v>2629.361468771403</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1152.360672295464</v>
+        <v>953.1971465255542</v>
       </c>
       <c r="C4" t="n">
-        <v>979.7989607786893</v>
+        <v>953.1971465255542</v>
       </c>
       <c r="D4" t="n">
-        <v>813.920967980212</v>
+        <v>787.3191537270769</v>
       </c>
       <c r="E4" t="n">
-        <v>644.1629642309493</v>
+        <v>617.5611499778142</v>
       </c>
       <c r="F4" t="n">
-        <v>467.4559101927056</v>
+        <v>440.8540959395705</v>
       </c>
       <c r="G4" t="n">
         <v>301.8646352185332</v>
@@ -4512,28 +4512,28 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R4" t="n">
-        <v>2689.962121586383</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S4" t="n">
-        <v>2689.962121586383</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T4" t="n">
-        <v>2654.405629657103</v>
+        <v>2263.423485168206</v>
       </c>
       <c r="U4" t="n">
-        <v>2375.972628910209</v>
+        <v>1984.990484421312</v>
       </c>
       <c r="V4" t="n">
-        <v>2089.017120780639</v>
+        <v>1698.034976291742</v>
       </c>
       <c r="W4" t="n">
-        <v>1816.990716366931</v>
+        <v>1426.008571878034</v>
       </c>
       <c r="X4" t="n">
-        <v>1571.598961700343</v>
+        <v>1180.616817211446</v>
       </c>
       <c r="Y4" t="n">
-        <v>1344.179291014452</v>
+        <v>953.1971465255542</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2210.394775134949</v>
+        <v>1788.743123275492</v>
       </c>
       <c r="C5" t="n">
-        <v>1772.252302318372</v>
+        <v>1754.641054499319</v>
       </c>
       <c r="D5" t="n">
-        <v>1336.342517492816</v>
+        <v>1318.731269673764</v>
       </c>
       <c r="E5" t="n">
-        <v>902.5677726511115</v>
+        <v>884.9565248320589</v>
       </c>
       <c r="F5" t="n">
-        <v>474.7003430603193</v>
+        <v>457.0890952412666</v>
       </c>
       <c r="G5" t="n">
-        <v>73.30251168358311</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H5" t="n">
-        <v>73.30251168358311</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I5" t="n">
         <v>73.30251168358311</v>
       </c>
       <c r="J5" t="n">
-        <v>379.6939845915884</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K5" t="n">
-        <v>1214.044276549766</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="L5" t="n">
         <v>1214.044276549766</v>
@@ -4600,19 +4600,19 @@
         <v>3665.125584179155</v>
       </c>
       <c r="U5" t="n">
-        <v>3665.125584179155</v>
+        <v>3405.903281496172</v>
       </c>
       <c r="V5" t="n">
-        <v>3665.125584179155</v>
+        <v>3043.286331429998</v>
       </c>
       <c r="W5" t="n">
-        <v>3464.122932740892</v>
+        <v>3042.471280881436</v>
       </c>
       <c r="X5" t="n">
-        <v>3044.980469320203</v>
+        <v>2623.328817460746</v>
       </c>
       <c r="Y5" t="n">
-        <v>2636.694345619856</v>
+        <v>2215.0426937604</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>73.30251168358311</v>
       </c>
       <c r="I6" t="n">
-        <v>73.30251168358311</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J6" t="n">
-        <v>397.8608366497954</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K6" t="n">
-        <v>397.8608366497954</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L6" t="n">
-        <v>829.4236910780509</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M6" t="n">
-        <v>829.4236910780509</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N6" t="n">
-        <v>829.4236910780509</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O6" t="n">
-        <v>1736.542273162392</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P6" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q6" t="n">
-        <v>1736.542273162392</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R6" t="n">
         <v>1736.542273162392</v>
@@ -4749,22 +4749,22 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R7" t="n">
-        <v>2668.544300291755</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S7" t="n">
-        <v>2509.302931589751</v>
+        <v>2654.893321412061</v>
       </c>
       <c r="T7" t="n">
-        <v>2509.302931589751</v>
+        <v>2409.013874990516</v>
       </c>
       <c r="U7" t="n">
-        <v>2375.972628910209</v>
+        <v>2130.580874243621</v>
       </c>
       <c r="V7" t="n">
-        <v>2089.017120780639</v>
+        <v>1843.625366114052</v>
       </c>
       <c r="W7" t="n">
-        <v>1816.990716366931</v>
+        <v>1571.598961700343</v>
       </c>
       <c r="X7" t="n">
         <v>1571.598961700343</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2006.541971984245</v>
+        <v>2499.941719064592</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.399499167669</v>
+        <v>2061.799246248016</v>
       </c>
       <c r="D8" t="n">
-        <v>1132.489714342113</v>
+        <v>1625.88946142246</v>
       </c>
       <c r="E8" t="n">
-        <v>698.7149695004082</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="F8" t="n">
-        <v>270.8475399096159</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G8" t="n">
-        <v>73.7193010564431</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H8" t="n">
         <v>73.7193010564431</v>
@@ -4804,28 +4804,28 @@
         <v>73.30251168358311</v>
       </c>
       <c r="J8" t="n">
-        <v>508.557199136501</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K8" t="n">
-        <v>1342.907491094679</v>
+        <v>907.652803641761</v>
       </c>
       <c r="L8" t="n">
-        <v>2121.162858634107</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="M8" t="n">
-        <v>2121.162858634107</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="N8" t="n">
-        <v>2121.162858634107</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="O8" t="n">
-        <v>2121.162858634107</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P8" t="n">
-        <v>2949.472733467504</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q8" t="n">
-        <v>3495.971519426098</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R8" t="n">
         <v>3665.125584179155</v>
@@ -4843,13 +4843,13 @@
         <v>3665.125584179155</v>
       </c>
       <c r="W8" t="n">
-        <v>3260.270129590189</v>
+        <v>3349.629472630132</v>
       </c>
       <c r="X8" t="n">
-        <v>2841.1276661695</v>
+        <v>3334.527413249847</v>
       </c>
       <c r="Y8" t="n">
-        <v>2432.841542469153</v>
+        <v>2926.2412895495</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>423.924509810253</v>
       </c>
       <c r="K9" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L9" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M9" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N9" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O9" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P9" t="n">
         <v>1078.630556435977</v>
@@ -4986,16 +4986,16 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R10" t="n">
-        <v>2668.544300291755</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S10" t="n">
-        <v>2509.302931589751</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T10" t="n">
-        <v>2509.302931589751</v>
+        <v>2654.405629657103</v>
       </c>
       <c r="U10" t="n">
-        <v>2230.869930842856</v>
+        <v>2375.972628910209</v>
       </c>
       <c r="V10" t="n">
         <v>2089.017120780639</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1080.983618291964</v>
+        <v>1926.425652197561</v>
       </c>
       <c r="C11" t="n">
-        <v>642.8411454753873</v>
+        <v>1488.283179380984</v>
       </c>
       <c r="D11" t="n">
-        <v>206.9313606498318</v>
+        <v>1052.373394555429</v>
       </c>
       <c r="E11" t="n">
-        <v>73.7193010564431</v>
+        <v>1052.373394555429</v>
       </c>
       <c r="F11" t="n">
-        <v>73.7193010564431</v>
+        <v>624.5059649646364</v>
       </c>
       <c r="G11" t="n">
-        <v>73.7193010564431</v>
+        <v>223.1081335879003</v>
       </c>
       <c r="H11" t="n">
         <v>73.7193010564431</v>
@@ -5041,19 +5041,19 @@
         <v>73.30251168358311</v>
       </c>
       <c r="J11" t="n">
-        <v>508.557199136501</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K11" t="n">
-        <v>1342.907491094679</v>
+        <v>907.652803641761</v>
       </c>
       <c r="L11" t="n">
-        <v>2121.162858634107</v>
+        <v>907.652803641761</v>
       </c>
       <c r="M11" t="n">
-        <v>2121.162858634107</v>
+        <v>907.652803641761</v>
       </c>
       <c r="N11" t="n">
-        <v>2121.162858634107</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O11" t="n">
         <v>2121.162858634107</v>
@@ -5083,10 +5083,10 @@
         <v>2334.711775897908</v>
       </c>
       <c r="X11" t="n">
-        <v>1915.569312477218</v>
+        <v>2334.711775897908</v>
       </c>
       <c r="Y11" t="n">
-        <v>1507.283188776872</v>
+        <v>1926.425652197561</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>423.924509810253</v>
       </c>
       <c r="K12" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L12" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M12" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N12" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O12" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P12" t="n">
         <v>1078.630556435977</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.7963491011951</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C13" t="n">
-        <v>610.2346375844201</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D13" t="n">
-        <v>444.3566447859428</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E13" t="n">
-        <v>274.59864103668</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F13" t="n">
-        <v>97.89158699843622</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G13" t="n">
         <v>73.30251168358311</v>
@@ -5223,28 +5223,28 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.962121586383</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="S13" t="n">
-        <v>2530.720752884379</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T13" t="n">
-        <v>2284.841306462834</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U13" t="n">
-        <v>2006.40830571594</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V13" t="n">
-        <v>1719.45279758637</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W13" t="n">
-        <v>1447.426393172662</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.034638506074</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y13" t="n">
-        <v>974.6149678201823</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1080.983618291964</v>
+        <v>1803.845182655778</v>
       </c>
       <c r="C14" t="n">
-        <v>642.8411454753873</v>
+        <v>1772.669091691232</v>
       </c>
       <c r="D14" t="n">
-        <v>206.9313606498318</v>
+        <v>1336.759306865676</v>
       </c>
       <c r="E14" t="n">
-        <v>73.30251168358311</v>
+        <v>902.9845620239714</v>
       </c>
       <c r="F14" t="n">
-        <v>73.30251168358311</v>
+        <v>475.1171324331792</v>
       </c>
       <c r="G14" t="n">
-        <v>73.30251168358311</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H14" t="n">
-        <v>73.30251168358311</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I14" t="n">
         <v>73.30251168358311</v>
       </c>
       <c r="J14" t="n">
-        <v>73.30251168358311</v>
+        <v>115.4599630927367</v>
       </c>
       <c r="K14" t="n">
-        <v>907.652803641761</v>
+        <v>115.4599630927367</v>
       </c>
       <c r="L14" t="n">
-        <v>1814.771385726102</v>
+        <v>115.4599630927367</v>
       </c>
       <c r="M14" t="n">
-        <v>1814.771385726102</v>
+        <v>1022.578545177078</v>
       </c>
       <c r="N14" t="n">
-        <v>1814.771385726102</v>
+        <v>1929.697127261418</v>
       </c>
       <c r="O14" t="n">
-        <v>2721.889967810443</v>
+        <v>2836.815709345759</v>
       </c>
       <c r="P14" t="n">
-        <v>3118.62679822056</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="Q14" t="n">
         <v>3665.125584179155</v>
@@ -5305,25 +5305,25 @@
         <v>3665.125584179155</v>
       </c>
       <c r="S14" t="n">
-        <v>3581.473710362992</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T14" t="n">
-        <v>3361.406483236031</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U14" t="n">
-        <v>3102.184180553048</v>
+        <v>3405.903281496172</v>
       </c>
       <c r="V14" t="n">
-        <v>2739.567230486874</v>
+        <v>3043.286331429998</v>
       </c>
       <c r="W14" t="n">
-        <v>2334.711775897908</v>
+        <v>2638.430876841032</v>
       </c>
       <c r="X14" t="n">
-        <v>1915.569312477218</v>
+        <v>2638.430876841032</v>
       </c>
       <c r="Y14" t="n">
-        <v>1507.283188776872</v>
+        <v>2230.144753140685</v>
       </c>
     </row>
     <row r="15">
@@ -5366,13 +5366,13 @@
         <v>423.924509810253</v>
       </c>
       <c r="M15" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N15" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O15" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P15" t="n">
         <v>1078.630556435977</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.7985487605143</v>
+        <v>886.9936690318959</v>
       </c>
       <c r="C16" t="n">
-        <v>751.2368372437393</v>
+        <v>714.4319575151209</v>
       </c>
       <c r="D16" t="n">
-        <v>585.358844445262</v>
+        <v>548.5539647166436</v>
       </c>
       <c r="E16" t="n">
-        <v>415.6008406959992</v>
+        <v>378.7959609673809</v>
       </c>
       <c r="F16" t="n">
-        <v>238.8937866577554</v>
+        <v>378.7959609673809</v>
       </c>
       <c r="G16" t="n">
-        <v>73.30251168358311</v>
+        <v>213.2046859932086</v>
       </c>
       <c r="H16" t="n">
         <v>73.30251168358311</v>
@@ -5463,25 +5463,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S16" t="n">
-        <v>2671.722952543698</v>
+        <v>2634.91807281508</v>
       </c>
       <c r="T16" t="n">
-        <v>2425.843506122153</v>
+        <v>2389.038626393535</v>
       </c>
       <c r="U16" t="n">
-        <v>2147.410505375259</v>
+        <v>2110.60562564664</v>
       </c>
       <c r="V16" t="n">
-        <v>1860.454997245689</v>
+        <v>1823.650117517071</v>
       </c>
       <c r="W16" t="n">
-        <v>1588.428592831981</v>
+        <v>1551.623713103362</v>
       </c>
       <c r="X16" t="n">
-        <v>1343.036838165393</v>
+        <v>1306.231958436775</v>
       </c>
       <c r="Y16" t="n">
-        <v>1115.617167479501</v>
+        <v>1078.812287750883</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5524,7 +5524,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5542,25 +5542,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>750.3393363912985</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>584.4613435928212</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5752,28 +5752,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2404.930957497405</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5998,7 +5998,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6138,10 +6138,10 @@
         <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
-        <v>120.5000093134636</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>120.5000093134636</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6229,19 +6229,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
         <v>5113.04201353898</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1162.814665109382</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C28" t="n">
-        <v>990.252953592607</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D28" t="n">
-        <v>824.3749607941297</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E28" t="n">
-        <v>654.6169570448669</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F28" t="n">
-        <v>477.9099030066232</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
         <v>190.9207894961043</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1011.560997133398</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>838.9992856166232</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1238.98066781929</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1011.560997133398</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>790.3368563937634</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7162,40 +7162,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1373.137619601648</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2006.541971984245</v>
+        <v>1766.505491459855</v>
       </c>
       <c r="C41" t="n">
-        <v>1568.399499167669</v>
+        <v>1328.363018643278</v>
       </c>
       <c r="D41" t="n">
-        <v>1132.489714342113</v>
+        <v>892.4532338177228</v>
       </c>
       <c r="E41" t="n">
-        <v>698.7149695004082</v>
+        <v>892.4532338177228</v>
       </c>
       <c r="F41" t="n">
-        <v>270.8475399096159</v>
+        <v>464.5858042269305</v>
       </c>
       <c r="G41" t="n">
-        <v>73.30251168358311</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H41" t="n">
-        <v>73.30251168358311</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I41" t="n">
         <v>73.30251168358311</v>
       </c>
       <c r="J41" t="n">
-        <v>73.30251168358311</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K41" t="n">
-        <v>73.30251168358311</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L41" t="n">
-        <v>943.7698379261327</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="M41" t="n">
-        <v>1850.888420010474</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="N41" t="n">
-        <v>2758.007002094815</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="O41" t="n">
-        <v>3665.125584179155</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P41" t="n">
-        <v>3665.125584179155</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q41" t="n">
         <v>3665.125584179155</v>
@@ -7438,25 +7438,25 @@
         <v>3665.125584179155</v>
       </c>
       <c r="S41" t="n">
-        <v>3665.125584179155</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T41" t="n">
-        <v>3665.125584179155</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U41" t="n">
-        <v>3665.125584179155</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="V41" t="n">
-        <v>3665.125584179155</v>
+        <v>2998.789533169857</v>
       </c>
       <c r="W41" t="n">
-        <v>3260.270129590189</v>
+        <v>2593.934078580891</v>
       </c>
       <c r="X41" t="n">
-        <v>2841.1276661695</v>
+        <v>2174.791615160202</v>
       </c>
       <c r="Y41" t="n">
-        <v>2432.841542469153</v>
+        <v>1766.505491459855</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>942.0377178031986</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C43" t="n">
-        <v>769.4760062864235</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D43" t="n">
-        <v>603.5980134879462</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E43" t="n">
-        <v>433.8400097386835</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F43" t="n">
-        <v>257.1329557004397</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G43" t="n">
-        <v>91.54168072626732</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H43" t="n">
         <v>73.30251168358311</v>
@@ -7596,25 +7596,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S43" t="n">
-        <v>2689.962121586383</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T43" t="n">
-        <v>2444.082675164838</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U43" t="n">
-        <v>2165.649674417943</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V43" t="n">
-        <v>1878.694166288373</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W43" t="n">
-        <v>1606.667761874665</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X43" t="n">
-        <v>1361.276007208078</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.856336522186</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2006.541971984245</v>
+        <v>2210.811564507809</v>
       </c>
       <c r="C44" t="n">
-        <v>1568.399499167669</v>
+        <v>1772.669091691232</v>
       </c>
       <c r="D44" t="n">
-        <v>1132.489714342113</v>
+        <v>1336.759306865676</v>
       </c>
       <c r="E44" t="n">
-        <v>698.7149695004082</v>
+        <v>902.9845620239714</v>
       </c>
       <c r="F44" t="n">
-        <v>270.8475399096159</v>
+        <v>475.1171324331792</v>
       </c>
       <c r="G44" t="n">
         <v>73.7193010564431</v>
@@ -7687,13 +7687,13 @@
         <v>3665.125584179155</v>
       </c>
       <c r="W44" t="n">
-        <v>3260.270129590189</v>
+        <v>3464.539722113752</v>
       </c>
       <c r="X44" t="n">
-        <v>2841.1276661695</v>
+        <v>3045.397258693063</v>
       </c>
       <c r="Y44" t="n">
-        <v>2432.841542469153</v>
+        <v>2637.111134992716</v>
       </c>
     </row>
     <row r="45">
@@ -7981,7 +7981,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7990,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>712.613209508349</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>916.2813960447888</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="P2" t="n">
         <v>836.6766412458549</v>
@@ -8060,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>309.4863362707125</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>842.7780726850283</v>
+        <v>235.983012910952</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>435.9220751800561</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>786.1165328681095</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>480.3490279404664</v>
       </c>
       <c r="P8" t="n">
         <v>836.6766412458549</v>
@@ -8476,7 +8476,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158823</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8689,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>786.1165328681095</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>309.4863362707125</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8771,22 +8771,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158823</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>42.58328425167029</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>916.2813960447889</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O14" t="n">
         <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
-        <v>400.7442731415326</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158823</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9646,10 +9646,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9889,10 +9889,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10594,22 +10594,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>879.2599254975249</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M41" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>916.2813960447888</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>297.557058395833</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>138.3439088050733</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>402.8967180335107</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>297.1444369167016</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>103.1553467313937</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>131.2385495991671</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
-        <v>90.2200092229009</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>69.71657238081424</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.31929241554619</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>227.3655273957976</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>7.907823718759317</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>128.4628789093298</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>161.9268490649757</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>201.8142751191963</v>
+        <v>296.6648679354021</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4463752142719</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>202.2268965983276</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -25927,7 +25927,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>202.226896598328</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>519429.5339119454</v>
+        <v>519429.5339119455</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>659374.2809005192</v>
+        <v>659374.2809005191</v>
       </c>
     </row>
     <row r="12">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308284.7089369848</v>
+        <v>308284.7089369849</v>
       </c>
       <c r="C2" t="n">
         <v>308284.7089369848</v>
@@ -26322,7 +26322,7 @@
         <v>308284.7089369848</v>
       </c>
       <c r="E2" t="n">
-        <v>238646.8557293379</v>
+        <v>238646.855729338</v>
       </c>
       <c r="F2" t="n">
         <v>238646.855729338</v>
@@ -26429,13 +26429,13 @@
         <v>32395.06964825125</v>
       </c>
       <c r="F4" t="n">
-        <v>32395.06964825125</v>
+        <v>32395.06964825126</v>
       </c>
       <c r="G4" t="n">
         <v>41122.95192991272</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26496,7 +26496,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-189640.0465282464</v>
+        <v>-189640.0465282463</v>
       </c>
       <c r="C6" t="n">
         <v>117426.9237584713</v>
       </c>
       <c r="D6" t="n">
-        <v>117426.9237584714</v>
+        <v>117426.9237584713</v>
       </c>
       <c r="E6" t="n">
-        <v>150541.8772015635</v>
+        <v>150239.1039267477</v>
       </c>
       <c r="F6" t="n">
-        <v>150541.8772015636</v>
+        <v>150239.1039267477</v>
       </c>
       <c r="G6" t="n">
-        <v>84888.87670800035</v>
+        <v>84865.65236861771</v>
       </c>
       <c r="H6" t="n">
-        <v>184101.9203432723</v>
+        <v>184078.6960038897</v>
       </c>
       <c r="I6" t="n">
-        <v>184101.9203432723</v>
+        <v>184078.6960038896</v>
       </c>
       <c r="J6" t="n">
-        <v>-55637.60924347042</v>
+        <v>-55660.83358285308</v>
       </c>
       <c r="K6" t="n">
-        <v>184101.9203432722</v>
+        <v>184078.6960038896</v>
       </c>
       <c r="L6" t="n">
-        <v>184101.9203432723</v>
+        <v>184078.6960038896</v>
       </c>
       <c r="M6" t="n">
-        <v>184101.9203432723</v>
+        <v>184078.6960038896</v>
       </c>
       <c r="N6" t="n">
-        <v>184101.9203432723</v>
+        <v>184078.6960038896</v>
       </c>
       <c r="O6" t="n">
-        <v>150541.8772015636</v>
+        <v>150239.1039267477</v>
       </c>
       <c r="P6" t="n">
-        <v>150541.8772015636</v>
+        <v>150239.1039267477</v>
       </c>
     </row>
   </sheetData>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>124.5693116239319</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>163.4212026217392</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>26.33579611060375</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>17.84775681999344</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,13 +27672,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>201.8142751191967</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>122.9308428424046</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>143.6516710866787</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>202.2268965983276</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>88.46574960954359</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>143.651671086679</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,10 +34710,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>712.613209508349</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>916.2813960447888</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="P2" t="n">
         <v>836.6766412458551</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632068</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>309.4863362707125</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>842.7780726850283</v>
+        <v>235.983012910952</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
@@ -35020,7 +35020,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>435.9220751800561</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>786.1165328681095</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>480.3490279404664</v>
       </c>
       <c r="P8" t="n">
         <v>836.6766412458551</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158823</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>786.1165328681095</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>309.4863362707125</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458551</v>
@@ -35491,22 +35491,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158823</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>42.58328425167029</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>916.2813960447889</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O14" t="n">
         <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
-        <v>400.7442731415326</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157527</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35734,7 +35734,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158823</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35892,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36366,10 +36366,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36597,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36606,10 +36606,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>661.3192390158824</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>879.2599254975249</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M41" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>916.2813960447888</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
